--- a/YYDRobotHardware/doc/协议文档.xlsx
+++ b/YYDRobotHardware/doc/协议文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19065" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>帧头</t>
   </si>
@@ -39,49 +39,55 @@
     <t>0xAA</t>
   </si>
   <si>
+    <t>0xC3(Android到单片机)</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x00(控制行走)</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>控制类型</t>
+  </si>
+  <si>
+    <t>距离/角度</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>0x01(返回当前值)</t>
+  </si>
+  <si>
+    <t>Body值</t>
+  </si>
+  <si>
+    <t>Head值</t>
+  </si>
+  <si>
+    <t>Neck值</t>
+  </si>
+  <si>
+    <t>0x3C(单片机到Android)</t>
+  </si>
+  <si>
+    <t>呼吸灯</t>
+  </si>
+  <si>
     <t>0xC3/0x3C</t>
-  </si>
-  <si>
-    <t>0x0C</t>
-  </si>
-  <si>
-    <t>0x01</t>
-  </si>
-  <si>
-    <t>0x00(控制行走)</t>
-  </si>
-  <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>控制类型</t>
-  </si>
-  <si>
-    <t>距离/角度</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>0x01(返回当前值)</t>
-  </si>
-  <si>
-    <t>Body值</t>
-  </si>
-  <si>
-    <t>Head值</t>
-  </si>
-  <si>
-    <t>Neck值</t>
-  </si>
-  <si>
-    <t>呼吸灯</t>
   </si>
   <si>
     <t>0x02</t>
@@ -190,7 +196,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,84 +241,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,14 +278,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -346,11 +301,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,10 +339,34 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,6 +376,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -400,187 +399,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,19 +663,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -701,6 +687,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -724,17 +723,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,28 +759,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,17 +795,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,152 +825,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,24 +1007,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,10 +1037,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1397,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1403,7 +1405,7 @@
     <col min="1" max="1" width="5.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="6" customWidth="1"/>
     <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="16" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6"/>
     <col min="7" max="7" width="17.75" style="6" customWidth="1"/>
@@ -1427,7 +1429,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="20"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18">
@@ -1522,10 +1524,10 @@
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1540,21 +1542,21 @@
       <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="13" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="13" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1562,36 +1564,36 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="19"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="22"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1604,14 +1606,16 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="22"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1624,14 +1628,14 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="22"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1644,14 +1648,14 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="22"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
         <v>9</v>
@@ -1666,29 +1670,29 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="23"/>
+      <c r="R9" s="24"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1700,7 +1704,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1709,7 +1713,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1722,14 +1726,14 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="22"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1742,29 +1746,29 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="23"/>
+      <c r="R12" s="24"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="16">
+      <c r="A13" s="17">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1776,16 +1780,16 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="22" t="s">
+      <c r="R13" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="7"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1798,14 +1802,14 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="22"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="7"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1818,14 +1822,14 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="22"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1838,29 +1842,29 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="22"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="7">
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1872,7 +1876,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="21" t="s">
+      <c r="R17" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1881,7 +1885,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1894,14 +1898,14 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="22"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1914,29 +1918,29 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="23"/>
+      <c r="R19" s="24"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="7">
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1948,7 +1952,7 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="21" t="s">
+      <c r="R20" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1957,7 +1961,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1970,14 +1974,14 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="22"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1990,29 +1994,29 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="23"/>
+      <c r="R22" s="24"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="7">
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2024,7 +2028,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2033,7 +2037,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2046,14 +2050,14 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="22"/>
+      <c r="R24" s="23"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2066,29 +2070,29 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="23"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="7">
         <v>7</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2100,7 +2104,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2109,7 +2113,7 @@
       <c r="B27" s="7"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2122,14 +2126,14 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="22"/>
+      <c r="R27" s="23"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2142,29 +2146,29 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="23"/>
+      <c r="R28" s="24"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="7">
         <v>8</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2176,7 +2180,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="21" t="s">
+      <c r="R29" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2185,7 +2189,7 @@
       <c r="B30" s="7"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -2198,14 +2202,14 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="22"/>
+      <c r="R30" s="23"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2218,29 +2222,29 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="23"/>
+      <c r="R31" s="24"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="7">
         <v>9</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -2252,7 +2256,7 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="21" t="s">
+      <c r="R32" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2261,7 +2265,7 @@
       <c r="B33" s="7"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -2274,14 +2278,14 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="22"/>
+      <c r="R33" s="23"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2294,29 +2298,29 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="23"/>
+      <c r="R34" s="24"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="7">
         <v>10</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2328,7 +2332,7 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="21" t="s">
+      <c r="R35" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2337,7 +2341,7 @@
       <c r="B36" s="7"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2350,14 +2354,14 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="22"/>
+      <c r="R36" s="23"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2370,10 +2374,10 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
-      <c r="R37" s="23"/>
+      <c r="R37" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="86">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
@@ -2410,7 +2414,8 @@
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D17:D19"/>
@@ -2482,16 +2487,16 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="19.5" spans="1:4">
@@ -2505,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="19.5" spans="1:4">
@@ -2525,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -2537,10 +2542,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2549,13 +2554,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/YYDRobotHardware/doc/协议文档.xlsx
+++ b/YYDRobotHardware/doc/协议文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19065" windowHeight="7200"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>帧头</t>
   </si>
@@ -87,9 +87,6 @@
     <t>呼吸灯</t>
   </si>
   <si>
-    <t>0xC3/0x3C</t>
-  </si>
-  <si>
     <t>0x02</t>
   </si>
   <si>
@@ -114,25 +111,16 @@
     <t>温湿度</t>
   </si>
   <si>
-    <t>0xC3/0x4C</t>
-  </si>
-  <si>
     <t>0x06</t>
   </si>
   <si>
     <t>亮度传感器</t>
   </si>
   <si>
-    <t>0xC3/0x5C</t>
-  </si>
-  <si>
     <t>0x07</t>
   </si>
   <si>
     <t xml:space="preserve">摄像头状态 </t>
-  </si>
-  <si>
-    <t>0xC3/0x6C</t>
   </si>
   <si>
     <t>0x08</t>
@@ -970,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,6 +1032,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,10 +1388,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1682,17 +1676,17 @@
       <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1712,7 +1706,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="13"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1726,13 +1720,15 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="23"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1746,30 +1742,16 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="24"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="17">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1780,18 +1762,30 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="R13" s="24"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="18"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="17">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1802,13 +1796,15 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="23"/>
+      <c r="R14" s="23" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="18"/>
       <c r="B15" s="7"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="13"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1825,10 +1821,12 @@
       <c r="R15" s="23"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="7"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1845,27 +1843,13 @@
       <c r="R16" s="23"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="7">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="A17" s="19"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1876,18 +1860,30 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="7">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1898,13 +1894,15 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="23"/>
+      <c r="R18" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="13"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1918,30 +1916,18 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="24"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="7">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1952,15 +1938,13 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="13"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1974,16 +1958,30 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="23"/>
+      <c r="R21" s="24"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="7">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1994,30 +1992,18 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="24"/>
+      <c r="R22" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="7">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2028,15 +2014,15 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -2050,13 +2036,13 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="23"/>
+      <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="13"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2074,25 +2060,25 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>35</v>
+      <c r="D26" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2112,7 +2098,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="13"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -2126,13 +2112,15 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="23"/>
+      <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -2146,30 +2134,16 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="24"/>
+      <c r="R28" s="23"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="7">
-        <v>8</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2180,18 +2154,30 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
-      <c r="R29" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="R29" s="24"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="7">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -2202,13 +2188,15 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="23"/>
+      <c r="R30" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="13"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2222,30 +2210,18 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
-      <c r="R31" s="24"/>
+      <c r="R31" s="25"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="7">
-        <v>9</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2256,15 +2232,13 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="R32" s="23"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="13"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -2278,16 +2252,30 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="23"/>
+      <c r="R33" s="24"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="7">
+        <v>8</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -2298,30 +2286,18 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="24"/>
+      <c r="R34" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="7">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -2332,15 +2308,15 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="R35" s="25"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E36" s="13"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2360,7 +2336,7 @@
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="13"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2376,8 +2352,200 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="24"/>
     </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="7">
+        <v>9</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="25"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="23"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="24"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="7">
+        <v>10</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="25"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="23"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="93">
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
@@ -2385,85 +2553,92 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D42:D45"/>
     <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E42:E45"/>
     <mergeCell ref="F4:F9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G42:G45"/>
     <mergeCell ref="R4:R9"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="R26:R28"/>
-    <mergeCell ref="R29:R31"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="R18:R21"/>
+    <mergeCell ref="R22:R25"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="R30:R33"/>
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="R38:R41"/>
+    <mergeCell ref="R42:R45"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2487,16 +2662,16 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="19.5" spans="1:4">
@@ -2510,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="19.5" spans="1:4">
@@ -2530,7 +2705,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -2542,10 +2717,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -2554,13 +2729,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
